--- a/datos/argentina_esp.xlsx
+++ b/datos/argentina_esp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\OneDrive\Escritorio\coding\proyectosR\clubdelcodigo\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651FDB13-A791-4860-8A5C-9DE939166A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE9BB4F-669E-4C4C-9837-2663E27DC64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4488" yWindow="1620" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="277">
   <si>
     <t>set</t>
   </si>
@@ -2575,7 +2575,7 @@
   <dimension ref="A1:J349"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A339" workbookViewId="0">
-      <selection activeCell="J345" sqref="J345"/>
+      <selection activeCell="J349" sqref="A349:J349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13717,36 +13717,14 @@
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A349">
-        <v>1</v>
-      </c>
-      <c r="B349" s="51">
-        <v>6800</v>
-      </c>
-      <c r="C349" s="51" t="s">
-        <v>272</v>
-      </c>
-      <c r="D349" s="52">
-        <v>3.2954545454545454</v>
-      </c>
-      <c r="E349" s="52">
-        <v>1.9366940127597756</v>
-      </c>
-      <c r="F349" s="52">
-        <v>5.0909090909090908</v>
-      </c>
-      <c r="G349" s="52">
-        <v>2.6419966484632642</v>
-      </c>
-      <c r="H349" s="52">
-        <v>5.1363636363636367</v>
-      </c>
-      <c r="I349" s="52">
-        <v>2.9368127934020709</v>
-      </c>
-      <c r="J349" t="s">
-        <v>276</v>
-      </c>
+      <c r="B349" s="51"/>
+      <c r="C349" s="51"/>
+      <c r="D349" s="52"/>
+      <c r="E349" s="52"/>
+      <c r="F349" s="52"/>
+      <c r="G349" s="52"/>
+      <c r="H349" s="52"/>
+      <c r="I349" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
